--- a/PrácticaXVII/Datos.xlsx
+++ b/PrácticaXVII/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f53c128df0648ac2/Documentos/Estudios/Universidad/3º Tercero/1er Cuatrimestre/Computación II/Computacion-II/PrácticaXVII/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7426E473-B250-4DDF-99F6-DEED79D0B621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{7426E473-B250-4DDF-99F6-DEED79D0B621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D16FF99-9C31-4AC3-A20E-DD8205A66469}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10780" xr2:uid="{A62120AD-5BBE-40A9-83B0-F7B60BF7B67A}"/>
+    <workbookView xWindow="-16320" yWindow="-8670" windowWidth="16440" windowHeight="29040" xr2:uid="{A62120AD-5BBE-40A9-83B0-F7B60BF7B67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>u(DF)</t>
-  </si>
-  <si>
     <t>u(exacta)</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>u(DF)005</t>
+  </si>
+  <si>
+    <t>u(DF)002</t>
   </si>
 </sst>
 </file>
@@ -122,11 +122,41 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -137,13 +167,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u(DF)</c:v>
+                  <c:v>u(DF)002</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -154,319 +184,769 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$256:$A$356</c:f>
+              <c:f>Hoja1!$A$2:$A$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.05</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>5.3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>5.7</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.85</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="41">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5.9</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.95</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="46">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="51">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>6.1</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="61">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>6.3</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="66">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="71">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.55</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="76">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>6.6</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="81">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>6.7</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="86">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>6.8</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.85</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="91">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6.9</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="96">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="101">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>7.1</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="106">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="111">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>7.3</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.35</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="116">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>7.4</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.45</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="121">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.55</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="126">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.65</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="131">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>7.7</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="136">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.85</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="141">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>7.9</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="146">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="151">
+                  <c:v>8.02</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="156">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
                   <c:v>8.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="161">
+                  <c:v>8.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="166">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>8.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="171">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="175">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="176">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.65</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="181">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>8.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="186">
+                  <c:v>8.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>8.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.85</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="191">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>8.9</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="196">
+                  <c:v>8.92</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="201">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>9.1</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="206">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>9.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.25</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="211">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.35</c:v>
-                </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="216">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="220">
                   <c:v>9.4</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="221">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="225">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="226">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="230">
                   <c:v>9.6</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.65</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="231">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="235">
                   <c:v>9.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="236">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="240">
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.85</c:v>
-                </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="241">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="245">
                   <c:v>9.9</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="246">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$252</c:f>
               <c:numCache>
@@ -1227,11 +1707,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D973-4497-96CC-80601A4F9557}"/>
+              <c16:uniqueId val="{00000000-E1E4-4CD8-95CC-C116E644FB2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1240,17 +1720,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>Hoja1!$B$255</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u(exacta)</c:v>
+                  <c:v>u(DF)005</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1261,7 +1741,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$256:$A$356</c:f>
               <c:numCache>
@@ -1572,773 +2052,323 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$252</c:f>
+              <c:f>Hoja1!$B$256:$B$356</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.124</c:v>
+                  <c:v>107.833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.254</c:v>
+                  <c:v>105.708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.39100000000001</c:v>
+                  <c:v>103.624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.535</c:v>
+                  <c:v>101.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.68600000000001</c:v>
+                  <c:v>99.575699999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.84399999999999</c:v>
+                  <c:v>97.608800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.008</c:v>
+                  <c:v>95.678700000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103.178</c:v>
+                  <c:v>93.784400000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.355</c:v>
+                  <c:v>91.924800000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101.538</c:v>
+                  <c:v>90.099000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100.72799999999999</c:v>
+                  <c:v>88.306100000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99.923699999999997</c:v>
+                  <c:v>86.545299999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.125500000000002</c:v>
+                  <c:v>84.815600000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.333299999999994</c:v>
+                  <c:v>83.116200000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.547200000000004</c:v>
+                  <c:v>81.446399999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.766900000000007</c:v>
+                  <c:v>79.805400000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.992500000000007</c:v>
+                  <c:v>78.192400000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95.2239</c:v>
+                  <c:v>76.606800000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94.460999999999999</c:v>
+                  <c:v>75.047799999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93.703699999999998</c:v>
+                  <c:v>73.514899999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>92.951999999999998</c:v>
+                  <c:v>72.007199999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.2059</c:v>
+                  <c:v>70.524299999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>91.465199999999996</c:v>
+                  <c:v>69.065399999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.729900000000001</c:v>
+                  <c:v>67.630200000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>66.217799999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>89.275400000000005</c:v>
+                  <c:v>64.8279</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88.555999999999997</c:v>
+                  <c:v>63.459899999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87.841700000000003</c:v>
+                  <c:v>62.113199999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87.132599999999996</c:v>
+                  <c:v>60.787500000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.428600000000003</c:v>
+                  <c:v>59.482100000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.729500000000002</c:v>
+                  <c:v>58.1967</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.035499999999999</c:v>
+                  <c:v>56.930700000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84.346299999999999</c:v>
+                  <c:v>55.683799999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83.662000000000006</c:v>
+                  <c:v>54.455399999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>82.982500000000002</c:v>
+                  <c:v>53.2453</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>82.307699999999997</c:v>
+                  <c:v>52.052999999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>81.637600000000006</c:v>
+                  <c:v>50.878100000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>80.972200000000001</c:v>
+                  <c:v>49.720199999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80.311400000000006</c:v>
+                  <c:v>48.579000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>79.655199999999994</c:v>
+                  <c:v>47.454000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>79.003399999999999</c:v>
+                  <c:v>46.345100000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78.356200000000001</c:v>
+                  <c:v>45.2517</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>77.713300000000004</c:v>
+                  <c:v>44.1736</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.074799999999996</c:v>
+                  <c:v>43.110599999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>76.440700000000007</c:v>
+                  <c:v>42.062100000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>75.8108</c:v>
+                  <c:v>41.028100000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>75.185199999999995</c:v>
+                  <c:v>40.008099999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>74.563800000000001</c:v>
+                  <c:v>39.001899999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>73.9465</c:v>
+                  <c:v>38.0092</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>73.333299999999994</c:v>
+                  <c:v>37.029699999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>72.724299999999999</c:v>
+                  <c:v>36.063200000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.119200000000006</c:v>
+                  <c:v>35.109400000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>71.518199999999993</c:v>
+                  <c:v>34.168100000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.921099999999996</c:v>
+                  <c:v>33.238999999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70.3279</c:v>
+                  <c:v>32.321899999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>69.738600000000005</c:v>
+                  <c:v>31.416599999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>69.153099999999995</c:v>
+                  <c:v>30.5228</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.571399999999997</c:v>
+                  <c:v>29.6403</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>67.993499999999997</c:v>
+                  <c:v>28.768899999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>67.419399999999996</c:v>
+                  <c:v>27.9084</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>66.8489</c:v>
+                  <c:v>27.058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>66.2821</c:v>
+                  <c:v>26.2193</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65.718800000000002</c:v>
+                  <c:v>25.3903</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65.159199999999998</c:v>
+                  <c:v>24.571400000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>64.603200000000001</c:v>
+                  <c:v>23.7624</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>64.050600000000003</c:v>
+                  <c:v>22.963100000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>63.501600000000003</c:v>
+                  <c:v>22.173500000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.956000000000003</c:v>
+                  <c:v>21.3932</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>62.413800000000002</c:v>
+                  <c:v>20.622199999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61.875</c:v>
+                  <c:v>19.860199999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>61.339599999999997</c:v>
+                  <c:v>19.107199999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>60.807499999999997</c:v>
+                  <c:v>18.3629</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>60.278599999999997</c:v>
+                  <c:v>17.627199999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>59.753100000000003</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>59.230800000000002</c:v>
+                  <c:v>16.181000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>58.7117</c:v>
+                  <c:v>15.4703</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>58.195700000000002</c:v>
+                  <c:v>14.7676</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>57.682899999999997</c:v>
+                  <c:v>14.072800000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>57.173299999999998</c:v>
+                  <c:v>13.3857</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>56.666699999999999</c:v>
+                  <c:v>12.706300000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.1631</c:v>
+                  <c:v>12.0344</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>55.662700000000001</c:v>
+                  <c:v>11.3698</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>55.165199999999999</c:v>
+                  <c:v>10.7125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>54.670699999999997</c:v>
+                  <c:v>10.0624</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>54.179099999999998</c:v>
+                  <c:v>9.4193200000000008</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53.6905</c:v>
+                  <c:v>8.7831399999999995</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>53.204700000000003</c:v>
+                  <c:v>8.1537600000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52.721899999999998</c:v>
+                  <c:v>7.5310699999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>52.241900000000001</c:v>
+                  <c:v>6.9149799999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>51.764699999999998</c:v>
+                  <c:v>6.3053699999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>51.290300000000002</c:v>
+                  <c:v>5.70214</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>50.8187</c:v>
+                  <c:v>5.1052</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>50.349899999999998</c:v>
+                  <c:v>4.5144399999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49.883699999999997</c:v>
+                  <c:v>3.92977</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49.420299999999997</c:v>
+                  <c:v>3.3511000000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>48.959499999999998</c:v>
+                  <c:v>2.77834</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48.501399999999997</c:v>
+                  <c:v>2.2113900000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>48.045999999999999</c:v>
+                  <c:v>1.6501699999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>47.5931</c:v>
+                  <c:v>1.0945800000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>47.142899999999997</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>46.6952</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>46.25</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>45.807400000000001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>45.367199999999997</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44.929600000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44.494399999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44.061599999999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>43.631300000000003</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>43.203299999999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>42.777799999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42.354599999999998</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>41.933700000000002</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>41.5152</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>41.0989</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>40.684899999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>40.273200000000003</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>39.863799999999998</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>39.456499999999998</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>39.051499999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>38.648600000000002</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>38.247999999999998</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>37.849499999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>37.453099999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>37.058799999999998</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>36.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>36.276600000000002</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>35.888599999999997</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>35.502600000000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>35.118699999999997</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>34.736800000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>34.356999999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>33.979100000000003</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>33.603099999999998</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>33.229199999999999</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>32.857100000000003</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>32.487000000000002</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>32.118899999999996</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>31.752600000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>31.388200000000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>31.025600000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>30.664999999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>30.306100000000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>29.949100000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>29.593900000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>29.240500000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>28.8889</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>28.539000000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>28.190999999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>27.8446</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>27.1571</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>26.815899999999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>26.476400000000002</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>26.1386</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>25.802499999999998</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>25.468</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>25.135100000000001</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>24.803899999999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>24.474299999999999</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>24.1463</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>23.82</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>23.495100000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>23.171900000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>22.850200000000001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>22.530100000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>22.211500000000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>21.894500000000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>21.578900000000001</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>21.264900000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>20.952400000000001</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>20.641300000000001</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>20.331800000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>20.023599999999998</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>19.716999999999999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>19.411799999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>19.108000000000001</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>18.805599999999998</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>18.5047</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>18.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>17.907</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>17.610199999999999</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>17.314800000000002</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>17.020800000000001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>16.728100000000001</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>16.436800000000002</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>16.146799999999999</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15.8581</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>15.5708</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>15.284700000000001</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>14.7166</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>14.4344</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>14.153499999999999</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>13.873900000000001</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>13.595499999999999</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>13.3184</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>13.0425</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>12.767899999999999</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.494400000000001</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12.222200000000001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>11.9512</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>11.6814</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>11.412800000000001</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>11.1454</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>10.879099999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>10.614000000000001</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>10.350099999999999</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10.087300000000001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>9.8257100000000008</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>9.5652200000000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>9.3058599999999991</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>9.0476200000000002</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>8.7904999999999998</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>8.5344800000000003</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>8.2795699999999997</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>8.0257500000000004</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>7.7730199999999998</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>7.5213700000000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>7.2707899999999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>7.02128</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>6.7728200000000003</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>6.5254200000000004</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>6.2790699999999999</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>6.03376</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>5.7894699999999997</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>5.5462199999999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>5.3039800000000001</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>5.0627599999999999</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>4.8225499999999997</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>4.5833300000000001</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>4.34511</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>4.1078799999999998</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>3.8716400000000002</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>3.6363599999999998</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>3.4020600000000001</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>3.16872</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2.93634</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2.70492</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2.47444</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2.2448999999999999</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2.0162900000000001</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1.7886200000000001</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>1.5618700000000001</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1.3360300000000001</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>1.11111</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.88709700000000002</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.66398400000000002</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.44176700000000002</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.220441</c:v>
-                </c:pt>
-                <c:pt idx="250">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D973-4497-96CC-80601A4F9557}"/>
+              <c16:uniqueId val="{00000002-E1E4-4CD8-95CC-C116E644FB2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2347,17 +2377,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$255</c:f>
+              <c:f>Hoja1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u(DF)005</c:v>
+                  <c:v>u(exacta)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2368,634 +2398,1534 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$256:$A$356</c:f>
+              <c:f>Hoja1!$A$2:$A$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.05</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>5.3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>5.7</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.85</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="41">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5.9</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.95</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="46">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="51">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>6.1</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="61">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>6.3</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="66">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="71">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.55</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="76">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>6.6</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="81">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>6.7</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="86">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>6.8</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.85</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="91">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6.9</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="96">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="101">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>7.1</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="106">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="111">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>7.3</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.35</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="116">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>7.4</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.45</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="121">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.55</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="126">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.65</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="131">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>7.7</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="136">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.85</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="141">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>7.9</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="146">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="151">
+                  <c:v>8.02</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="156">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
                   <c:v>8.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="161">
+                  <c:v>8.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="166">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>8.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="171">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="175">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="176">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.65</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="181">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>8.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="186">
+                  <c:v>8.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>8.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.85</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="191">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>8.9</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="196">
+                  <c:v>8.92</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="201">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>9.1</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="206">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>9.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.25</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="211">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.35</c:v>
-                </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="216">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="220">
                   <c:v>9.4</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="221">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="225">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="226">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="230">
                   <c:v>9.6</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.65</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="231">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="235">
                   <c:v>9.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="236">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="240">
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.85</c:v>
-                </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="241">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="245">
                   <c:v>9.9</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="246">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$256:$B$356</c:f>
+              <c:f>Hoja1!$C$2:$C$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="251"/>
                 <c:pt idx="0">
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.833</c:v>
+                  <c:v>109.124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.708</c:v>
+                  <c:v>108.254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.624</c:v>
+                  <c:v>107.39100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.58</c:v>
+                  <c:v>106.535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.575699999999998</c:v>
+                  <c:v>105.68600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.608800000000002</c:v>
+                  <c:v>104.84399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.678700000000006</c:v>
+                  <c:v>104.008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.784400000000005</c:v>
+                  <c:v>103.178</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.924800000000005</c:v>
+                  <c:v>102.355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.099000000000004</c:v>
+                  <c:v>101.538</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.306100000000001</c:v>
+                  <c:v>100.72799999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.545299999999997</c:v>
+                  <c:v>99.923699999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.815600000000003</c:v>
+                  <c:v>99.125500000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.116200000000006</c:v>
+                  <c:v>98.333299999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.446399999999997</c:v>
+                  <c:v>97.547200000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.805400000000006</c:v>
+                  <c:v>96.766900000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78.192400000000006</c:v>
+                  <c:v>95.992500000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.606800000000007</c:v>
+                  <c:v>95.2239</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.047799999999995</c:v>
+                  <c:v>94.460999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73.514899999999997</c:v>
+                  <c:v>93.703699999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72.007199999999997</c:v>
+                  <c:v>92.951999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.524299999999997</c:v>
+                  <c:v>92.2059</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.065399999999997</c:v>
+                  <c:v>91.465199999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67.630200000000002</c:v>
+                  <c:v>90.729900000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66.217799999999997</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.8279</c:v>
+                  <c:v>89.275400000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63.459899999999998</c:v>
+                  <c:v>88.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>62.113199999999999</c:v>
+                  <c:v>87.841700000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.787500000000001</c:v>
+                  <c:v>87.132599999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59.482100000000003</c:v>
+                  <c:v>86.428600000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.1967</c:v>
+                  <c:v>85.729500000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56.930700000000002</c:v>
+                  <c:v>85.035499999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>55.683799999999998</c:v>
+                  <c:v>84.346299999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54.455399999999997</c:v>
+                  <c:v>83.662000000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>53.2453</c:v>
+                  <c:v>82.982500000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52.052999999999997</c:v>
+                  <c:v>82.307699999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.878100000000003</c:v>
+                  <c:v>81.637600000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49.720199999999998</c:v>
+                  <c:v>80.972200000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.579000000000001</c:v>
+                  <c:v>80.311400000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.454000000000001</c:v>
+                  <c:v>79.655199999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>46.345100000000002</c:v>
+                  <c:v>79.003399999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45.2517</c:v>
+                  <c:v>78.356200000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.1736</c:v>
+                  <c:v>77.713300000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.110599999999998</c:v>
+                  <c:v>77.074799999999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.062100000000001</c:v>
+                  <c:v>76.440700000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.028100000000002</c:v>
+                  <c:v>75.8108</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.008099999999999</c:v>
+                  <c:v>75.185199999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>39.001899999999999</c:v>
+                  <c:v>74.563800000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.0092</c:v>
+                  <c:v>73.9465</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.029699999999998</c:v>
+                  <c:v>73.333299999999994</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36.063200000000002</c:v>
+                  <c:v>72.724299999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>35.109400000000001</c:v>
+                  <c:v>72.119200000000006</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>34.168100000000003</c:v>
+                  <c:v>71.518199999999993</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.238999999999997</c:v>
+                  <c:v>70.921099999999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.321899999999999</c:v>
+                  <c:v>70.3279</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.416599999999999</c:v>
+                  <c:v>69.738600000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.5228</c:v>
+                  <c:v>69.153099999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29.6403</c:v>
+                  <c:v>68.571399999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28.768899999999999</c:v>
+                  <c:v>67.993499999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27.9084</c:v>
+                  <c:v>67.419399999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27.058599999999998</c:v>
+                  <c:v>66.8489</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.2193</c:v>
+                  <c:v>66.2821</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25.3903</c:v>
+                  <c:v>65.718800000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>24.571400000000001</c:v>
+                  <c:v>65.159199999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>23.7624</c:v>
+                  <c:v>64.603200000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.963100000000001</c:v>
+                  <c:v>64.050600000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>22.173500000000001</c:v>
+                  <c:v>63.501600000000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>21.3932</c:v>
+                  <c:v>62.956000000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20.622199999999999</c:v>
+                  <c:v>62.413800000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.860199999999999</c:v>
+                  <c:v>61.875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19.107199999999999</c:v>
+                  <c:v>61.339599999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18.3629</c:v>
+                  <c:v>60.807499999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>17.627199999999998</c:v>
+                  <c:v>60.278599999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>59.753100000000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>16.181000000000001</c:v>
+                  <c:v>59.230800000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>15.4703</c:v>
+                  <c:v>58.7117</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.7676</c:v>
+                  <c:v>58.195700000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14.072800000000001</c:v>
+                  <c:v>57.682899999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.3857</c:v>
+                  <c:v>57.173299999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.706300000000001</c:v>
+                  <c:v>56.666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.0344</c:v>
+                  <c:v>56.1631</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11.3698</c:v>
+                  <c:v>55.662700000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.7125</c:v>
+                  <c:v>55.165199999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.0624</c:v>
+                  <c:v>54.670699999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.4193200000000008</c:v>
+                  <c:v>54.179099999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.7831399999999995</c:v>
+                  <c:v>53.6905</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.1537600000000001</c:v>
+                  <c:v>53.204700000000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.5310699999999997</c:v>
+                  <c:v>52.721899999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.9149799999999999</c:v>
+                  <c:v>52.241900000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.3053699999999999</c:v>
+                  <c:v>51.764699999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.70214</c:v>
+                  <c:v>51.290300000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.1052</c:v>
+                  <c:v>50.8187</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.5144399999999996</c:v>
+                  <c:v>50.349899999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.92977</c:v>
+                  <c:v>49.883699999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.3511000000000002</c:v>
+                  <c:v>49.420299999999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.77834</c:v>
+                  <c:v>48.959499999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.2113900000000002</c:v>
+                  <c:v>48.501399999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6501699999999999</c:v>
+                  <c:v>48.045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0945800000000001</c:v>
+                  <c:v>47.5931</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>47.142899999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>46.6952</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45.807400000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45.367199999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44.929600000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44.494399999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.061599999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43.631300000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43.203299999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42.777799999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42.354599999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41.933700000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.5152</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41.0989</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40.684899999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40.273200000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>39.863799999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39.456499999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39.051499999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>38.648600000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>38.247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>37.849499999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>37.453099999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>37.058799999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36.276600000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>35.888599999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>35.502600000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>35.118699999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>34.736800000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>34.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33.979100000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>33.603099999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>33.229199999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>32.857100000000003</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>32.487000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>32.118899999999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>31.752600000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>31.388200000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>31.025600000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>30.306100000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29.949100000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>29.593900000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>29.240500000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>28.8889</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>28.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28.190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>27.8446</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>27.1571</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26.815899999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>26.476400000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>26.1386</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>25.802499999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>25.468</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>25.135100000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>24.803899999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>24.474299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>24.1463</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>23.495100000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>23.171900000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22.850200000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22.530100000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22.211500000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21.894500000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>21.578900000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>21.264900000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>20.952400000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20.641300000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>20.331800000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>20.023599999999998</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>19.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>19.411799999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>19.108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>18.805599999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>18.5047</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>18.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>17.907</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.610199999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17.314800000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.020800000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>16.728100000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>16.436800000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>16.146799999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15.8581</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>15.5708</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>15.284700000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>14.7166</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>14.4344</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>14.153499999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13.873900000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>13.595499999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>13.3184</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>13.0425</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12.767899999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12.494400000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12.222200000000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>11.9512</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>11.6814</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>11.412800000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>11.1454</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10.879099999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.350099999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.087300000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.8257100000000008</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.5652200000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.3058599999999991</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.0476200000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8.7904999999999998</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>8.5344800000000003</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>8.2795699999999997</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>8.0257500000000004</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7.7730199999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>7.5213700000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7.2707899999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7.02128</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6.7728200000000003</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6.5254200000000004</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.2790699999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6.03376</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5.7894699999999997</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5.5462199999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5.3039800000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5.0627599999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.8225499999999997</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.5833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.34511</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.1078799999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.8716400000000002</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.6363599999999998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.4020600000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.16872</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.93634</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.70492</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.47444</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.2448999999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.0162900000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.7886200000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.5618700000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.3360300000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.11111</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.88709700000000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.66398400000000002</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.44176700000000002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.220441</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D973-4497-96CC-80601A4F9557}"/>
+              <c16:uniqueId val="{00000003-E1E4-4CD8-95CC-C116E644FB2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3007,17 +3937,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="533390096"/>
-        <c:axId val="533389776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="533390096"/>
+        <c:axId val="588847312"/>
+        <c:axId val="588844432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="588847312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Radio(R)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3027,8 +4027,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3055,17 +4055,16 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533389776"/>
+        <c:crossAx val="588844432"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="533389776"/>
+        <c:axId val="588844432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3083,14 +4082,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>u(R)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3114,9 +4174,9 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533390096"/>
+        <c:crossAx val="588847312"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3127,7 +4187,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3235,7 +4295,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3262,8 +4322,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3343,11 +4403,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3358,11 +4413,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3374,7 +4424,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3394,9 +4444,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3409,10 +4456,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3452,22 +4499,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3572,8 +4620,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3705,19 +4753,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3731,6 +4780,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3754,23 +4814,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>460374</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EBB479-74E1-321A-9945-171005B8431D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA65FB28-F571-E5CF-5DAA-049CCCCC7B48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,27 +5150,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA411DC9-A10E-4E2A-8E1D-02E0BEA5719C}">
   <dimension ref="A1:D356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="G233" sqref="G233"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255:B356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -4124,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.0199999999999996</v>
       </c>
@@ -4138,7 +5198,7 @@
         <v>1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.04</v>
       </c>
@@ -4152,7 +5212,7 @@
         <v>3.4781500000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0599999999999996</v>
       </c>
@@ -4166,7 +5226,7 @@
         <v>5.1966E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.08</v>
       </c>
@@ -4180,7 +5240,7 @@
         <v>6.9015300000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.0999999999999996</v>
       </c>
@@ -4194,7 +5254,7 @@
         <v>8.5930799999999995E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.12</v>
       </c>
@@ -4208,7 +5268,7 @@
         <v>1.02714E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.14</v>
       </c>
@@ -4222,7 +5282,7 @@
         <v>1.19367E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.16</v>
       </c>
@@ -4236,7 +5296,7 @@
         <v>1.35891E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.18</v>
       </c>
@@ -4250,7 +5310,7 @@
         <v>1.52287E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.2</v>
       </c>
@@ -4264,7 +5324,7 @@
         <v>1.6855700000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.22</v>
       </c>
@@ -4278,7 +5338,7 @@
         <v>1.8470199999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.24</v>
       </c>
@@ -4292,7 +5352,7 @@
         <v>2.0072400000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.26</v>
       </c>
@@ -4306,7 +5366,7 @@
         <v>2.1662399999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.28</v>
       </c>
@@ -4320,7 +5380,7 @@
         <v>2.3240400000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.3</v>
       </c>
@@ -4334,7 +5394,7 @@
         <v>2.4806399999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.32</v>
       </c>
@@ -4348,7 +5408,7 @@
         <v>2.6360700000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.34</v>
       </c>
@@ -4362,7 +5422,7 @@
         <v>2.7903399999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.36</v>
       </c>
@@ -4376,7 +5436,7 @@
         <v>2.9434499999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.38</v>
       </c>
@@ -4390,7 +5450,7 @@
         <v>3.0954200000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -4404,7 +5464,7 @@
         <v>3.2462699999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.42</v>
       </c>
@@ -4418,7 +5478,7 @@
         <v>3.39601E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.44</v>
       </c>
@@ -4432,7 +5492,7 @@
         <v>3.5446400000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.46</v>
       </c>
@@ -4446,7 +5506,7 @@
         <v>3.6921900000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.48</v>
       </c>
@@ -4460,7 +5520,7 @@
         <v>3.83866E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.5</v>
       </c>
@@ -4474,7 +5534,7 @@
         <v>3.9840599999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.52</v>
       </c>
@@ -4488,7 +5548,7 @@
         <v>4.1284099999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.54</v>
       </c>
@@ -4502,7 +5562,7 @@
         <v>4.2717199999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.56</v>
       </c>
@@ -4516,7 +5576,7 @@
         <v>4.4139999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.58</v>
       </c>
@@ -4530,7 +5590,7 @@
         <v>4.5552599999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.6</v>
       </c>
@@ -4544,7 +5604,7 @@
         <v>4.6954999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.62</v>
       </c>
@@ -4558,7 +5618,7 @@
         <v>4.8347500000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.64</v>
       </c>
@@ -4572,7 +5632,7 @@
         <v>4.9730200000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.66</v>
       </c>
@@ -4586,7 +5646,7 @@
         <v>5.1103000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.68</v>
       </c>
@@ -4600,7 +5660,7 @@
         <v>5.2466199999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.7</v>
       </c>
@@ -4614,7 +5674,7 @@
         <v>5.3819800000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.72</v>
       </c>
@@ -4628,7 +5688,7 @@
         <v>5.5163999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.74</v>
       </c>
@@ -4642,7 +5702,7 @@
         <v>5.6498699999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.76</v>
       </c>
@@ -4656,7 +5716,7 @@
         <v>5.7824300000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.78</v>
       </c>
@@ -4670,7 +5730,7 @@
         <v>5.9140600000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.8</v>
       </c>
@@ -4684,7 +5744,7 @@
         <v>6.0447899999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.82</v>
       </c>
@@ -4698,7 +5758,7 @@
         <v>6.1746099999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.84</v>
       </c>
@@ -4712,7 +5772,7 @@
         <v>6.3035499999999994E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.86</v>
       </c>
@@ -4726,7 +5786,7 @@
         <v>6.4316100000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.88</v>
       </c>
@@ -4740,7 +5800,7 @@
         <v>6.5587999999999994E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.9</v>
       </c>
@@ -4754,7 +5814,7 @@
         <v>6.68512E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.92</v>
       </c>
@@ -4768,7 +5828,7 @@
         <v>6.8106E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.94</v>
       </c>
@@ -4782,7 +5842,7 @@
         <v>6.9352200000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.96</v>
       </c>
@@ -4796,7 +5856,7 @@
         <v>7.0590100000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.98</v>
       </c>
@@ -4810,7 +5870,7 @@
         <v>7.18197E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4824,7 +5884,7 @@
         <v>7.3041200000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.02</v>
       </c>
@@ -4838,7 +5898,7 @@
         <v>7.4254500000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.04</v>
       </c>
@@ -4852,7 +5912,7 @@
         <v>7.5459799999999994E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.06</v>
       </c>
@@ -4866,7 +5926,7 @@
         <v>7.6657100000000006E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.08</v>
       </c>
@@ -4880,7 +5940,7 @@
         <v>7.7846499999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6.1</v>
       </c>
@@ -4894,7 +5954,7 @@
         <v>7.9028100000000004E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.12</v>
       </c>
@@ -4908,7 +5968,7 @@
         <v>8.0202099999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6.14</v>
       </c>
@@ -4922,7 +5982,7 @@
         <v>8.1368300000000005E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6.16</v>
       </c>
@@ -4936,7 +5996,7 @@
         <v>8.2527000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.18</v>
       </c>
@@ -4950,7 +6010,7 @@
         <v>8.3678199999999994E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6.2</v>
       </c>
@@ -4964,7 +6024,7 @@
         <v>8.4821999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6.22</v>
       </c>
@@ -4978,7 +6038,7 @@
         <v>8.5958400000000004E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6.24</v>
       </c>
@@ -4992,7 +6052,7 @@
         <v>8.7087499999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.26</v>
       </c>
@@ -5006,7 +6066,7 @@
         <v>8.8209499999999996E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6.28</v>
       </c>
@@ -5020,7 +6080,7 @@
         <v>8.9324200000000006E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.3</v>
       </c>
@@ -5034,7 +6094,7 @@
         <v>9.0431899999999996E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.32</v>
       </c>
@@ -5048,7 +6108,7 @@
         <v>9.1532600000000006E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.34</v>
       </c>
@@ -5062,7 +6122,7 @@
         <v>9.2626299999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.36</v>
       </c>
@@ -5076,7 +6136,7 @@
         <v>9.3713199999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.38</v>
       </c>
@@ -5090,7 +6150,7 @@
         <v>9.4793199999999994E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.4</v>
       </c>
@@ -5104,7 +6164,7 @@
         <v>9.5866499999999993E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.42</v>
       </c>
@@ -5118,7 +6178,7 @@
         <v>9.6933099999999994E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6.44</v>
       </c>
@@ -5132,7 +6192,7 @@
         <v>9.79931E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6.46</v>
       </c>
@@ -5146,7 +6206,7 @@
         <v>9.9046499999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6.48</v>
       </c>
@@ -5160,7 +6220,7 @@
         <v>0.100093</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6.5</v>
       </c>
@@ -5174,7 +6234,7 @@
         <v>0.101134</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6.52</v>
       </c>
@@ -5188,7 +6248,7 @@
         <v>0.10216799999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6.54</v>
       </c>
@@ -5202,7 +6262,7 @@
         <v>0.103196</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6.56</v>
       </c>
@@ -5216,7 +6276,7 @@
         <v>0.104217</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6.58</v>
       </c>
@@ -5230,7 +6290,7 @@
         <v>0.10523299999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6.6</v>
       </c>
@@ -5244,7 +6304,7 @@
         <v>0.106242</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6.62</v>
       </c>
@@ -5258,7 +6318,7 @@
         <v>0.10724499999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6.64</v>
       </c>
@@ -5272,7 +6332,7 @@
         <v>0.108242</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6.66</v>
       </c>
@@ -5286,7 +6346,7 @@
         <v>0.109233</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6.68</v>
       </c>
@@ -5300,7 +6360,7 @@
         <v>0.110218</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6.7</v>
       </c>
@@ -5314,7 +6374,7 @@
         <v>0.111197</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.72</v>
       </c>
@@ -5328,7 +6388,7 @@
         <v>0.11217000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6.74</v>
       </c>
@@ -5342,7 +6402,7 @@
         <v>0.113138</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6.76</v>
       </c>
@@ -5356,7 +6416,7 @@
         <v>0.11409999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6.78</v>
       </c>
@@ -5370,7 +6430,7 @@
         <v>0.11505600000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6.8</v>
       </c>
@@ -5384,7 +6444,7 @@
         <v>0.116007</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6.82</v>
       </c>
@@ -5398,7 +6458,7 @@
         <v>0.116952</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6.84</v>
       </c>
@@ -5412,7 +6472,7 @@
         <v>0.117891</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6.86</v>
       </c>
@@ -5426,7 +6486,7 @@
         <v>0.118825</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6.88</v>
       </c>
@@ -5440,7 +6500,7 @@
         <v>0.119754</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6.9</v>
       </c>
@@ -5454,7 +6514,7 @@
         <v>0.12067700000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6.92</v>
       </c>
@@ -5468,7 +6528,7 @@
         <v>0.12159499999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6.94</v>
       </c>
@@ -5482,7 +6542,7 @@
         <v>0.122507</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6.96</v>
       </c>
@@ -5496,7 +6556,7 @@
         <v>0.123414</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.98</v>
       </c>
@@ -5510,7 +6570,7 @@
         <v>0.124316</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7</v>
       </c>
@@ -5524,7 +6584,7 @@
         <v>0.12521299999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7.02</v>
       </c>
@@ -5538,7 +6598,7 @@
         <v>0.12610499999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7.04</v>
       </c>
@@ -5552,7 +6612,7 @@
         <v>0.12699199999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7.06</v>
       </c>
@@ -5566,7 +6626,7 @@
         <v>0.12787399999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7.08</v>
       </c>
@@ -5580,7 +6640,7 @@
         <v>0.128751</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7.1</v>
       </c>
@@ -5594,7 +6654,7 @@
         <v>0.12962199999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>7.12</v>
       </c>
@@ -5608,7 +6668,7 @@
         <v>0.13048899999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7.14</v>
       </c>
@@ -5622,7 +6682,7 @@
         <v>0.131351</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7.16</v>
       </c>
@@ -5636,7 +6696,7 @@
         <v>0.13220899999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7.18</v>
       </c>
@@ -5650,7 +6710,7 @@
         <v>0.13306100000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7.2</v>
       </c>
@@ -5664,7 +6724,7 @@
         <v>0.133909</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7.22</v>
       </c>
@@ -5678,7 +6738,7 @@
         <v>0.13475200000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7.24</v>
       </c>
@@ -5692,7 +6752,7 @@
         <v>0.13558999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7.26</v>
       </c>
@@ -5706,7 +6766,7 @@
         <v>0.13642399999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7.28</v>
       </c>
@@ -5720,7 +6780,7 @@
         <v>0.13725300000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7.3</v>
       </c>
@@ -5734,7 +6794,7 @@
         <v>0.13807800000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7.32</v>
       </c>
@@ -5748,7 +6808,7 @@
         <v>0.13889799999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7.34</v>
       </c>
@@ -5762,7 +6822,7 @@
         <v>0.139714</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7.36</v>
       </c>
@@ -5776,7 +6836,7 @@
         <v>0.14052500000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7.38</v>
       </c>
@@ -5790,7 +6850,7 @@
         <v>0.14133200000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7.4</v>
       </c>
@@ -5804,7 +6864,7 @@
         <v>0.14213400000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7.42</v>
       </c>
@@ -5818,7 +6878,7 @@
         <v>0.142932</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7.44</v>
       </c>
@@ -5832,7 +6892,7 @@
         <v>0.14372599999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7.46</v>
       </c>
@@ -5846,7 +6906,7 @@
         <v>0.14451600000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7.48</v>
       </c>
@@ -5860,7 +6920,7 @@
         <v>0.14530100000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7.5</v>
       </c>
@@ -5874,7 +6934,7 @@
         <v>0.14608199999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7.52</v>
       </c>
@@ -5888,7 +6948,7 @@
         <v>0.14685899999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7.54</v>
       </c>
@@ -5902,7 +6962,7 @@
         <v>0.14763200000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7.56</v>
       </c>
@@ -5916,7 +6976,7 @@
         <v>0.14840100000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7.58</v>
       </c>
@@ -5930,7 +6990,7 @@
         <v>0.14916599999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7.6</v>
       </c>
@@ -5944,7 +7004,7 @@
         <v>0.149927</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7.62</v>
       </c>
@@ -5958,7 +7018,7 @@
         <v>0.15068300000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7.64</v>
       </c>
@@ -5972,7 +7032,7 @@
         <v>0.15143599999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7.66</v>
       </c>
@@ -5986,7 +7046,7 @@
         <v>0.15218499999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7.68</v>
       </c>
@@ -6000,7 +7060,7 @@
         <v>0.15293000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -6014,7 +7074,7 @@
         <v>0.153671</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7.72</v>
       </c>
@@ -6028,7 +7088,7 @@
         <v>0.15440799999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7.74</v>
       </c>
@@ -6042,7 +7102,7 @@
         <v>0.155142</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7.76</v>
       </c>
@@ -6056,7 +7116,7 @@
         <v>0.15587100000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7.78</v>
       </c>
@@ -6070,7 +7130,7 @@
         <v>0.15659699999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7.8</v>
       </c>
@@ -6084,7 +7144,7 @@
         <v>0.15731899999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7.82</v>
       </c>
@@ -6098,7 +7158,7 @@
         <v>0.15803800000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7.84</v>
       </c>
@@ -6112,7 +7172,7 @@
         <v>0.15875300000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7.86</v>
       </c>
@@ -6126,7 +7186,7 @@
         <v>0.15946399999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7.88</v>
       </c>
@@ -6140,7 +7200,7 @@
         <v>0.16017100000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7.9</v>
       </c>
@@ -6154,7 +7214,7 @@
         <v>0.16087499999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7.92</v>
       </c>
@@ -6168,7 +7228,7 @@
         <v>0.161576</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7.94</v>
       </c>
@@ -6182,7 +7242,7 @@
         <v>0.162273</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7.96</v>
       </c>
@@ -6196,7 +7256,7 @@
         <v>0.162966</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7.98</v>
       </c>
@@ -6210,7 +7270,7 @@
         <v>0.163656</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -6224,7 +7284,7 @@
         <v>0.16434299999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8.02</v>
       </c>
@@ -6238,7 +7298,7 @@
         <v>0.16502600000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8.0399999999999991</v>
       </c>
@@ -6252,7 +7312,7 @@
         <v>0.16570499999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8.06</v>
       </c>
@@ -6266,7 +7326,7 @@
         <v>0.166382</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8.08</v>
       </c>
@@ -6280,7 +7340,7 @@
         <v>0.16705500000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8.1</v>
       </c>
@@ -6294,7 +7354,7 @@
         <v>0.16772400000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8.1199999999999992</v>
       </c>
@@ -6308,7 +7368,7 @@
         <v>0.16839000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8.14</v>
       </c>
@@ -6322,7 +7382,7 @@
         <v>0.16905400000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8.16</v>
       </c>
@@ -6336,7 +7396,7 @@
         <v>0.169713</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8.18</v>
       </c>
@@ -6350,7 +7410,7 @@
         <v>0.17036999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8.1999999999999993</v>
       </c>
@@ -6364,7 +7424,7 @@
         <v>0.17102300000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8.2200000000000006</v>
       </c>
@@ -6378,7 +7438,7 @@
         <v>0.17167299999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8.24</v>
       </c>
@@ -6392,7 +7452,7 @@
         <v>0.17232</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8.26</v>
       </c>
@@ -6406,7 +7466,7 @@
         <v>0.17296400000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8.2799999999999994</v>
       </c>
@@ -6420,7 +7480,7 @@
         <v>0.17360500000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8.3000000000000007</v>
       </c>
@@ -6434,7 +7494,7 @@
         <v>0.17424300000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8.32</v>
       </c>
@@ -6448,7 +7508,7 @@
         <v>0.174877</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8.34</v>
       </c>
@@ -6462,7 +7522,7 @@
         <v>0.175509</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8.36</v>
       </c>
@@ -6476,7 +7536,7 @@
         <v>0.17613799999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8.3800000000000008</v>
       </c>
@@ -6490,7 +7550,7 @@
         <v>0.176763</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8.4</v>
       </c>
@@ -6504,7 +7564,7 @@
         <v>0.17738599999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8.42</v>
       </c>
@@ -6518,7 +7578,7 @@
         <v>0.178005</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8.44</v>
       </c>
@@ -6532,7 +7592,7 @@
         <v>0.178622</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>8.4600000000000009</v>
       </c>
@@ -6546,7 +7606,7 @@
         <v>0.17923600000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8.48</v>
       </c>
@@ -6560,7 +7620,7 @@
         <v>0.17984700000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8.5</v>
       </c>
@@ -6574,7 +7634,7 @@
         <v>0.180455</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.52</v>
       </c>
@@ -6588,7 +7648,7 @@
         <v>0.18106</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.5399999999999991</v>
       </c>
@@ -6602,7 +7662,7 @@
         <v>0.18166199999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.56</v>
       </c>
@@ -6616,7 +7676,7 @@
         <v>0.18226200000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.58</v>
       </c>
@@ -6630,7 +7690,7 @@
         <v>0.18285799999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.6</v>
       </c>
@@ -6644,7 +7704,7 @@
         <v>0.183452</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.6199999999999992</v>
       </c>
@@ -6658,7 +7718,7 @@
         <v>0.18404300000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.64</v>
       </c>
@@ -6672,7 +7732,7 @@
         <v>0.18463199999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.66</v>
       </c>
@@ -6686,7 +7746,7 @@
         <v>0.18521799999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.68</v>
       </c>
@@ -6700,7 +7760,7 @@
         <v>0.18580099999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8.6999999999999993</v>
       </c>
@@ -6714,7 +7774,7 @@
         <v>0.18638099999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8.7200000000000006</v>
       </c>
@@ -6728,7 +7788,7 @@
         <v>0.18695899999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8.74</v>
       </c>
@@ -6742,7 +7802,7 @@
         <v>0.18753400000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8.76</v>
       </c>
@@ -6756,7 +7816,7 @@
         <v>0.188106</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8.7799999999999994</v>
       </c>
@@ -6770,7 +7830,7 @@
         <v>0.18867600000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8.8000000000000007</v>
       </c>
@@ -6784,7 +7844,7 @@
         <v>0.18924299999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8.82</v>
       </c>
@@ -6798,7 +7858,7 @@
         <v>0.189808</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8.84</v>
       </c>
@@ -6812,7 +7872,7 @@
         <v>0.19037000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8.86</v>
       </c>
@@ -6826,7 +7886,7 @@
         <v>0.19092899999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8.8800000000000008</v>
       </c>
@@ -6840,7 +7900,7 @@
         <v>0.19148599999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8.9</v>
       </c>
@@ -6854,7 +7914,7 @@
         <v>0.19204099999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8.92</v>
       </c>
@@ -6868,7 +7928,7 @@
         <v>0.19259299999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8.94</v>
       </c>
@@ -6882,7 +7942,7 @@
         <v>0.19314200000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8.9600000000000009</v>
       </c>
@@ -6896,7 +7956,7 @@
         <v>0.19369</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8.98</v>
       </c>
@@ -6910,7 +7970,7 @@
         <v>0.19423399999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>9</v>
       </c>
@@ -6924,7 +7984,7 @@
         <v>0.194776</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9.02</v>
       </c>
@@ -6938,7 +7998,7 @@
         <v>0.19531599999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>9.0399999999999991</v>
       </c>
@@ -6952,7 +8012,7 @@
         <v>0.195854</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9.06</v>
       </c>
@@ -6966,7 +8026,7 @@
         <v>0.19638900000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9.08</v>
       </c>
@@ -6980,7 +8040,7 @@
         <v>0.19692200000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9.1</v>
       </c>
@@ -6994,7 +8054,7 @@
         <v>0.19745199999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9.1199999999999992</v>
       </c>
@@ -7008,7 +8068,7 @@
         <v>0.19797999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9.14</v>
       </c>
@@ -7022,7 +8082,7 @@
         <v>0.19850599999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9.16</v>
       </c>
@@ -7036,7 +8096,7 @@
         <v>0.19902900000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9.18</v>
       </c>
@@ -7050,7 +8110,7 @@
         <v>0.19955000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>9.1999999999999993</v>
       </c>
@@ -7064,7 +8124,7 @@
         <v>0.200069</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9.2200000000000006</v>
       </c>
@@ -7078,7 +8138,7 @@
         <v>0.20058599999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9.24</v>
       </c>
@@ -7092,7 +8152,7 @@
         <v>0.2011</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9.26</v>
       </c>
@@ -7106,7 +8166,7 @@
         <v>0.20161299999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9.2799999999999994</v>
       </c>
@@ -7120,7 +8180,7 @@
         <v>0.202123</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9.3000000000000007</v>
       </c>
@@ -7134,7 +8194,7 @@
         <v>0.20263</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>9.32</v>
       </c>
@@ -7148,7 +8208,7 @@
         <v>0.20313600000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>9.34</v>
       </c>
@@ -7162,7 +8222,7 @@
         <v>0.20363899999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9.36</v>
       </c>
@@ -7176,7 +8236,7 @@
         <v>0.20414099999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>9.3800000000000008</v>
       </c>
@@ -7190,7 +8250,7 @@
         <v>0.20463999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9.4</v>
       </c>
@@ -7204,7 +8264,7 @@
         <v>0.20513700000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>9.42</v>
       </c>
@@ -7218,7 +8278,7 @@
         <v>0.20563200000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9.44</v>
       </c>
@@ -7232,7 +8292,7 @@
         <v>0.206125</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>9.4600000000000009</v>
       </c>
@@ -7246,7 +8306,7 @@
         <v>0.20661499999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>9.48</v>
       </c>
@@ -7260,7 +8320,7 @@
         <v>0.20710400000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>9.5</v>
       </c>
@@ -7274,7 +8334,7 @@
         <v>0.207591</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>9.52</v>
       </c>
@@ -7288,7 +8348,7 @@
         <v>0.20807500000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>9.5399999999999991</v>
       </c>
@@ -7302,7 +8362,7 @@
         <v>0.20855799999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>9.56</v>
       </c>
@@ -7316,7 +8376,7 @@
         <v>0.209038</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>9.58</v>
       </c>
@@ -7330,7 +8390,7 @@
         <v>0.20951700000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9.6</v>
       </c>
@@ -7344,7 +8404,7 @@
         <v>0.20999300000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>9.6199999999999992</v>
       </c>
@@ -7358,7 +8418,7 @@
         <v>0.21046799999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>9.64</v>
       </c>
@@ -7372,7 +8432,7 @@
         <v>0.21093999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9.66</v>
       </c>
@@ -7386,7 +8446,7 @@
         <v>0.21141099999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>9.68</v>
       </c>
@@ -7400,7 +8460,7 @@
         <v>0.21188000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>9.6999999999999993</v>
       </c>
@@ -7414,7 +8474,7 @@
         <v>0.21234600000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9.7200000000000006</v>
       </c>
@@ -7428,7 +8488,7 @@
         <v>0.212811</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>9.74</v>
       </c>
@@ -7442,7 +8502,7 @@
         <v>0.21327399999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>9.76</v>
       </c>
@@ -7456,7 +8516,7 @@
         <v>0.21373500000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9.7799999999999994</v>
       </c>
@@ -7470,7 +8530,7 @@
         <v>0.214194</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9.8000000000000007</v>
       </c>
@@ -7484,7 +8544,7 @@
         <v>0.21465200000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9.82</v>
       </c>
@@ -7498,7 +8558,7 @@
         <v>0.21510699999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9.84</v>
       </c>
@@ -7512,7 +8572,7 @@
         <v>0.215561</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9.86</v>
       </c>
@@ -7526,7 +8586,7 @@
         <v>0.21601200000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9.8800000000000008</v>
       </c>
@@ -7540,7 +8600,7 @@
         <v>0.21646199999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9.9</v>
       </c>
@@ -7554,7 +8614,7 @@
         <v>0.21690999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9.92</v>
       </c>
@@ -7568,7 +8628,7 @@
         <v>0.21735599999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9.94</v>
       </c>
@@ -7582,7 +8642,7 @@
         <v>0.21780099999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9.9600000000000009</v>
       </c>
@@ -7596,7 +8656,7 @@
         <v>0.21824299999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9.98</v>
       </c>
@@ -7610,7 +8670,7 @@
         <v>0.21868399999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>10</v>
       </c>
@@ -7624,21 +8684,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
         <v>2</v>
       </c>
-      <c r="D255" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5</v>
       </c>
@@ -7652,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5.05</v>
       </c>
@@ -7666,7 +8726,7 @@
         <v>1.0783299999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5.0999999999999996</v>
       </c>
@@ -7680,7 +8740,7 @@
         <v>2.1355099999999998E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5.15</v>
       </c>
@@ -7694,7 +8754,7 @@
         <v>3.1721600000000003E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5.2</v>
       </c>
@@ -7708,7 +8768,7 @@
         <v>4.1888799999999997E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5.25</v>
       </c>
@@ -7722,7 +8782,7 @@
         <v>5.18623E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>5.3</v>
       </c>
@@ -7736,7 +8796,7 @@
         <v>6.16477E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5.35</v>
       </c>
@@ -7750,7 +8810,7 @@
         <v>7.1250099999999997E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5.4</v>
       </c>
@@ -7764,7 +8824,7 @@
         <v>8.0674700000000002E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>5.45</v>
       </c>
@@ -7778,7 +8838,7 @@
         <v>8.9926400000000004E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>5.5</v>
       </c>
@@ -7792,7 +8852,7 @@
         <v>9.9009899999999998E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5.55</v>
       </c>
@@ -7806,7 +8866,7 @@
         <v>0.10793</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>5.6</v>
       </c>
@@ -7820,7 +8880,7 @@
         <v>0.11669</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>5.65</v>
       </c>
@@ -7834,7 +8894,7 @@
         <v>0.12529599999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>5.7</v>
       </c>
@@ -7848,7 +8908,7 @@
         <v>0.13375000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>5.75</v>
       </c>
@@ -7862,7 +8922,7 @@
         <v>0.14205799999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>5.8</v>
       </c>
@@ -7876,7 +8936,7 @@
         <v>0.15022199999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>5.85</v>
       </c>
@@ -7890,7 +8950,7 @@
         <v>0.158247</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>5.9</v>
       </c>
@@ -7904,7 +8964,7 @@
         <v>0.166135</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>5.95</v>
       </c>
@@ -7918,7 +8978,7 @@
         <v>0.17389099999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>6</v>
       </c>
@@ -7932,7 +8992,7 @@
         <v>0.18151800000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6.05</v>
       </c>
@@ -7946,7 +9006,7 @@
         <v>0.18901899999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>6.1</v>
       </c>
@@ -7960,7 +9020,7 @@
         <v>0.19639699999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6.15</v>
       </c>
@@ -7974,7 +9034,7 @@
         <v>0.203655</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6.2</v>
       </c>
@@ -7988,7 +9048,7 @@
         <v>0.21079500000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>6.25</v>
       </c>
@@ -8002,7 +9062,7 @@
         <v>0.21782199999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>6.3</v>
       </c>
@@ -8016,7 +9076,7 @@
         <v>0.22473699999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6.35</v>
       </c>
@@ -8030,7 +9090,7 @@
         <v>0.231543</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>6.4</v>
       </c>
@@ -8044,7 +9104,7 @@
         <v>0.23824300000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.45</v>
       </c>
@@ -8058,7 +9118,7 @@
         <v>0.244838</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6.5</v>
       </c>
@@ -8072,7 +9132,7 @@
         <v>0.25133299999999997</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6.55</v>
       </c>
@@ -8086,7 +9146,7 @@
         <v>0.25772800000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6.6</v>
       </c>
@@ -8100,7 +9160,7 @@
         <v>0.26402599999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6.65</v>
       </c>
@@ -8114,7 +9174,7 @@
         <v>0.27023000000000003</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.7</v>
       </c>
@@ -8128,7 +9188,7 @@
         <v>0.276341</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>6.75</v>
       </c>
@@ -8142,7 +9202,7 @@
         <v>0.282362</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>6.8</v>
       </c>
@@ -8156,7 +9216,7 @@
         <v>0.28829399999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>6.85</v>
       </c>
@@ -8170,7 +9230,7 @@
         <v>0.29413899999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6.9</v>
       </c>
@@ -8184,7 +9244,7 @@
         <v>0.2999</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6.95</v>
       </c>
@@ -8198,7 +9258,7 @@
         <v>0.30557699999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>7</v>
       </c>
@@ -8212,7 +9272,7 @@
         <v>0.31117400000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>7.05</v>
       </c>
@@ -8226,7 +9286,7 @@
         <v>0.316691</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>7.1</v>
       </c>
@@ -8240,7 +9300,7 @@
         <v>0.322131</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>7.15</v>
       </c>
@@ -8254,7 +9314,7 @@
         <v>0.32749400000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>7.2</v>
       </c>
@@ -8268,7 +9328,7 @@
         <v>0.332783</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>7.25</v>
       </c>
@@ -8282,7 +9342,7 @@
         <v>0.33799899999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>7.3</v>
       </c>
@@ -8296,7 +9356,7 @@
         <v>0.343144</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>7.35</v>
       </c>
@@ -8310,7 +9370,7 @@
         <v>0.34821800000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7.4</v>
       </c>
@@ -8324,7 +9384,7 @@
         <v>0.35322500000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>7.45</v>
       </c>
@@ -8338,7 +9398,7 @@
         <v>0.35816300000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>7.5</v>
       </c>
@@ -8352,7 +9412,7 @@
         <v>0.36303600000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7.55</v>
       </c>
@@ -8366,7 +9426,7 @@
         <v>0.36784499999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>7.6</v>
       </c>
@@ -8380,7 +9440,7 @@
         <v>0.37258999999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.65</v>
       </c>
@@ -8394,7 +9454,7 @@
         <v>0.37727300000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>7.7</v>
       </c>
@@ -8408,7 +9468,7 @@
         <v>0.38189499999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>7.75</v>
       </c>
@@ -8422,7 +9482,7 @@
         <v>0.38645800000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>7.8</v>
       </c>
@@ -8436,7 +9496,7 @@
         <v>0.39096199999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>7.85</v>
       </c>
@@ -8450,7 +9510,7 @@
         <v>0.39540900000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>7.9</v>
       </c>
@@ -8464,7 +9524,7 @@
         <v>0.39979900000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>7.95</v>
       </c>
@@ -8478,7 +9538,7 @@
         <v>0.40413500000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>8</v>
       </c>
@@ -8492,7 +9552,7 @@
         <v>0.408416</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>8.0500000000000007</v>
       </c>
@@ -8506,7 +9566,7 @@
         <v>0.41264400000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>8.1</v>
       </c>
@@ -8520,7 +9580,7 @@
         <v>0.416819</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>8.15</v>
       </c>
@@ -8534,7 +9594,7 @@
         <v>0.42094399999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>8.1999999999999993</v>
       </c>
@@ -8548,7 +9608,7 @@
         <v>0.42501800000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8.25</v>
       </c>
@@ -8562,7 +9622,7 @@
         <v>0.42904300000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>8.3000000000000007</v>
       </c>
@@ -8576,7 +9636,7 @@
         <v>0.43301899999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8.35</v>
       </c>
@@ -8590,7 +9650,7 @@
         <v>0.436948</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8.4</v>
       </c>
@@ -8604,7 +9664,7 @@
         <v>0.44083</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>8.4499999999999993</v>
       </c>
@@ -8618,7 +9678,7 @@
         <v>0.44466600000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>8.5</v>
       </c>
@@ -8632,7 +9692,7 @@
         <v>0.44845699999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>8.5500000000000007</v>
       </c>
@@ -8646,7 +9706,7 @@
         <v>0.45220300000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>8.6</v>
       </c>
@@ -8660,7 +9720,7 @@
         <v>0.45590599999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>8.65</v>
       </c>
@@ -8674,7 +9734,7 @@
         <v>0.45956599999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>8.6999999999999993</v>
       </c>
@@ -8688,7 +9748,7 @@
         <v>0.46318399999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8.75</v>
       </c>
@@ -8702,7 +9762,7 @@
         <v>0.46676099999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8.8000000000000007</v>
       </c>
@@ -8716,7 +9776,7 @@
         <v>0.47029700000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>8.85</v>
       </c>
@@ -8730,7 +9790,7 @@
         <v>0.47379300000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.9</v>
       </c>
@@ -8744,7 +9804,7 @@
         <v>0.47725000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>8.9499999999999993</v>
       </c>
@@ -8758,7 +9818,7 @@
         <v>0.48066799999999998</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>9</v>
       </c>
@@ -8772,7 +9832,7 @@
         <v>0.48404799999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>9.0500000000000007</v>
       </c>
@@ -8786,7 +9846,7 @@
         <v>0.48739100000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>9.1</v>
       </c>
@@ -8800,7 +9860,7 @@
         <v>0.49069699999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>9.15</v>
       </c>
@@ -8814,7 +9874,7 @@
         <v>0.49396699999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>9.1999999999999993</v>
       </c>
@@ -8828,7 +9888,7 @@
         <v>0.49720199999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>9.25</v>
       </c>
@@ -8842,7 +9902,7 @@
         <v>0.50040099999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>9.3000000000000007</v>
       </c>
@@ -8856,7 +9916,7 @@
         <v>0.50356599999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>9.35</v>
       </c>
@@ -8870,7 +9930,7 @@
         <v>0.50669799999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9.4</v>
       </c>
@@ -8884,7 +9944,7 @@
         <v>0.50979600000000003</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>9.4499999999999993</v>
       </c>
@@ -8898,7 +9958,7 @@
         <v>0.51286100000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>9.5</v>
       </c>
@@ -8912,7 +9972,7 @@
         <v>0.51589399999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>9.5500000000000007</v>
       </c>
@@ -8926,7 +9986,7 @@
         <v>0.518895</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>9.6</v>
       </c>
@@ -8940,7 +10000,7 @@
         <v>0.52186500000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>9.65</v>
       </c>
@@ -8954,7 +10014,7 @@
         <v>0.52480400000000005</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>9.6999999999999993</v>
       </c>
@@ -8968,7 +10028,7 @@
         <v>0.52771299999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>9.75</v>
       </c>
@@ -8982,7 +10042,7 @@
         <v>0.53059199999999995</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>9.8000000000000007</v>
       </c>
@@ -8996,7 +10056,7 @@
         <v>0.53344100000000005</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>9.85</v>
       </c>
@@ -9010,7 +10070,7 @@
         <v>0.53626200000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>9.9</v>
       </c>
@@ -9024,7 +10084,7 @@
         <v>0.53905400000000003</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>9.9499999999999993</v>
       </c>
@@ -9038,7 +10098,7 @@
         <v>0.54181800000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>10</v>
       </c>
@@ -9054,6 +10114,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>